--- a/Staffprofile.xlsx
+++ b/Staffprofile.xlsx
@@ -1,129 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Desktop\Final_IOT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FB58E1-8178-4490-9440-06A87CEF45F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>員工姓名</t>
-  </si>
-  <si>
-    <t>年分</t>
-  </si>
-  <si>
-    <t>連絡電話</t>
-  </si>
-  <si>
-    <t>身分證</t>
-  </si>
-  <si>
-    <t>到職日期</t>
-  </si>
-  <si>
-    <t>部門代號</t>
-  </si>
-  <si>
-    <t>權限</t>
-  </si>
-  <si>
-    <t>打卡:2021/5/18</t>
-  </si>
-  <si>
-    <t>Unnamed: 8</t>
-  </si>
-  <si>
-    <t>打卡:2021/05/18</t>
-  </si>
-  <si>
-    <t>Wendy</t>
-  </si>
-  <si>
-    <t>H25256857</t>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>23:04:41</t>
-  </si>
-  <si>
-    <t>23:19:48</t>
-  </si>
-  <si>
-    <t>Yang</t>
-  </si>
-  <si>
-    <t>K23456784</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>23:11:36</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>A12346655</t>
-  </si>
-  <si>
-    <t>B02</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -138,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,133 +424,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>員工姓名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>出生年分</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>連絡電話</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>身分證</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>到職日期</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>部門代號</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>權限</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>打卡:2021/5/18</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>打卡:2021/05/18</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>打卡:2021/05/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wendy</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>36354</v>
+      </c>
+      <c r="C2" t="n">
+        <v>226716218</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>H25256857</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>43842</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>23:04:41</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>23:19:48</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>20:04:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Yang</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>36355</v>
+      </c>
+      <c r="C3" t="n">
+        <v>226716218</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>K23456784</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>44229</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>23:11:36</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>19:56:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>36356</v>
+      </c>
+      <c r="C4" t="n">
+        <v>226716218</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A12346655</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>43892</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B02</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
-        <v>36354</v>
-      </c>
-      <c r="C2">
-        <v>226716218</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <v>43842</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2">
-        <v>36355</v>
-      </c>
-      <c r="C3">
-        <v>226716218</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44229</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>36356</v>
-      </c>
-      <c r="C4">
-        <v>226716218</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43892</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Staffprofile.xlsx
+++ b/Staffprofile.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,11 @@
           <t>打卡:2021/05/20</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>打卡:2021/05/25</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -534,6 +539,7 @@
           <t>20:04:32</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -576,6 +582,11 @@
           <t>19:56:35</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>21:47:10</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -608,6 +619,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
